--- a/Reading Material/Investing Quotes.xlsx
+++ b/Reading Material/Investing Quotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\Reading Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD0FB7E8-189F-4A2F-9A21-0C7B83B264CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE79DE23-20DC-4954-A8BB-B2C02A41CCDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{580C54D7-188A-4F60-B072-67AAE798FF12}"/>
   </bookViews>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94194D44-27CE-4383-B8FD-C4AC9DEB63D7}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Reading Material/Investing Quotes.xlsx
+++ b/Reading Material/Investing Quotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\Reading Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE79DE23-20DC-4954-A8BB-B2C02A41CCDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4978250-D04C-4E5F-AD85-EC521BC54050}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{580C54D7-188A-4F60-B072-67AAE798FF12}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Quote</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>Peter Lynch</t>
+  </si>
+  <si>
+    <t>Benjamin Graham</t>
+  </si>
+  <si>
+    <t>In the short term the market is a voting machine, but in the long-term, it's a weighing machine</t>
   </si>
 </sst>
 </file>
@@ -472,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94194D44-27CE-4383-B8FD-C4AC9DEB63D7}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,6 +605,14 @@
         <v>24</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>

--- a/Reading Material/Investing Quotes.xlsx
+++ b/Reading Material/Investing Quotes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\Reading Material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/Reading Material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4978250-D04C-4E5F-AD85-EC521BC54050}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA944DC-8D6C-CA4C-854C-BF1D796DB61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{580C54D7-188A-4F60-B072-67AAE798FF12}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12220" xr2:uid="{580C54D7-188A-4F60-B072-67AAE798FF12}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Quote</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>In the short term the market is a voting machine, but in the long-term, it's a weighing machine</t>
+  </si>
+  <si>
+    <t>Charlie Munger</t>
+  </si>
+  <si>
+    <t>No wise pilot, no matter how great his talent and experience, fails to use his checklist</t>
   </si>
 </sst>
 </file>
@@ -159,11 +165,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,18 +482,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94194D44-27CE-4383-B8FD-C4AC9DEB63D7}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -500,7 +504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -508,7 +512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1935</v>
       </c>
@@ -519,7 +523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -530,7 +534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -538,7 +542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -546,71 +550,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2022</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2022</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Reading Material/Investing Quotes.xlsx
+++ b/Reading Material/Investing Quotes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/Reading Material/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\Reading Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA944DC-8D6C-CA4C-854C-BF1D796DB61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECDD82B-1CD9-4564-967A-7EE984C89CE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12220" xr2:uid="{580C54D7-188A-4F60-B072-67AAE798FF12}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="12225" xr2:uid="{580C54D7-188A-4F60-B072-67AAE798FF12}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Quote</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>No wise pilot, no matter how great his talent and experience, fails to use his checklist</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t>1. Develop a thesis about the future 2. Take a small position to see if it works. 3. If it does work, add to it and rigde the trend. If it doesn't work, get out. 4. When conviction is high, make the position "hughe" but always manage risk. 5. Constantly reevaluate all aspects of the thesis, real outcomes, and price action. 6. If anything makes you think twice (emotions, price action, events not happening as expected) GET OUT</t>
   </si>
 </sst>
 </file>
@@ -482,18 +488,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94194D44-27CE-4383-B8FD-C4AC9DEB63D7}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -504,7 +510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -512,7 +518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1935</v>
       </c>
@@ -523,7 +529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -534,7 +540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -542,7 +548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -550,7 +556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2022</v>
       </c>
@@ -561,7 +567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -572,7 +578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -580,12 +586,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -593,7 +599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -601,7 +607,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -609,7 +615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -617,12 +623,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
